--- a/src/main/java/com/hrms/hrms/Utils/Template.xlsx
+++ b/src/main/java/com/hrms/hrms/Utils/Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINH\CODE\hrms-lana-backend\src\main\java\com\hrms\hrms\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{276B0E4E-00F4-4A8C-B5DC-7F7C7DB5FD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Ninh" sheetId="24" r:id="rId1"/>
@@ -27,8 +26,7 @@
     <sheet name="Thuong" sheetId="16" r:id="rId12"/>
     <sheet name="abcd" sheetId="29" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="183">
   <si>
     <t xml:space="preserve">DAILY TIMESHEET </t>
   </si>
@@ -830,13 +828,16 @@
     <t>Work from home (Last working day)</t>
   </si>
   <si>
-    <t>ABCD</t>
+    <t>LUNCH TIME</t>
+  </si>
+  <si>
+    <t>ADD-IN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
@@ -1401,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1858,18 +1859,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1897,6 +1886,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1914,6 +1906,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2041,9 +2045,6 @@
     <xf numFmtId="168" fontId="20" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2142,6 +2143,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9206,12 +9216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9226,32 +9236,35 @@
     <col min="11" max="11" width="7.6640625" style="22" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="8.88671875" style="22" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="9.5546875" style="22" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.5546875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="48.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="101" t="s">
         <v>52</v>
       </c>
@@ -9266,51 +9279,57 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="101">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="269"/>
+      <c r="O4" s="269"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="23"/>
@@ -9324,23 +9343,25 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -9353,18 +9374,24 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="270" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="270" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+    <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="100" t="s">
         <v>15</v>
       </c>
@@ -9389,33 +9416,32 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
+      <c r="M7" s="191"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="193"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.57999999999999996" right="0.34" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
@@ -9427,7 +9453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9446,28 +9472,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="41" t="s">
         <v>52</v>
       </c>
@@ -9484,47 +9510,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="41">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -9543,20 +9569,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -9569,18 +9595,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="40" t="s">
         <v>15</v>
       </c>
@@ -9605,8 +9631,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -9697,7 +9723,7 @@
         <f>SUM(G10:L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="193" t="s">
+      <c r="N10" s="194" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9728,7 +9754,7 @@
         <f>SUM(G11:L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="194"/>
+      <c r="N11" s="195"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -9757,7 +9783,7 @@
         <f>SUM(G12:L12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="194"/>
+      <c r="N12" s="195"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
@@ -9780,20 +9806,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="195"/>
+      <c r="N13" s="196"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -10022,17 +10048,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>48</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -10286,17 +10312,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="230" t="s">
+      <c r="A31" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="231"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="233">
+      <c r="B31" s="232"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234">
         <f>SUM($E$23:$F$30)</f>
         <v>48</v>
       </c>
-      <c r="F31" s="234"/>
+      <c r="F31" s="235"/>
       <c r="G31" s="137"/>
       <c r="H31" s="116"/>
       <c r="I31" s="116"/>
@@ -10523,17 +10549,17 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="230" t="s">
+      <c r="A39" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="231"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="232"/>
-      <c r="E39" s="233">
+      <c r="B39" s="232"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="234">
         <f>SUM($E$32:$F$38)</f>
         <v>42</v>
       </c>
-      <c r="F39" s="234"/>
+      <c r="F39" s="235"/>
       <c r="G39" s="137"/>
       <c r="H39" s="116"/>
       <c r="I39" s="116"/>
@@ -10640,12 +10666,12 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="118">
         <f>SUM($E8:$E13)+SUM($E15:$E21)+SUM($E23:$E30)+SUM($E32:$E38)+SUM($E40:$E42)</f>
         <v>184</v>
@@ -10682,7 +10708,7 @@
         <f>SUM(M39+M31+M14+M22)</f>
         <v>18</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
@@ -10716,115 +10742,115 @@
       <c r="M44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213"/>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213">
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214">
         <f>COUNTIFS(N6:N40, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="213"/>
-      <c r="M47" s="214"/>
-      <c r="N47" s="210"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="214"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
       <c r="L48" s="236">
         <f>26-L45</f>
         <v>26</v>
       </c>
       <c r="M48" s="237"/>
-      <c r="N48" s="210"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="221"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
-      <c r="L49" s="223"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="210"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="229" t="s">
+      <c r="A50" s="220"/>
+      <c r="B50" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="36" t="s">
         <v>30</v>
       </c>
@@ -10843,19 +10869,19 @@
       <c r="J50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="225"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="210"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="211"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="220"/>
-      <c r="B51" s="203">
+      <c r="A51" s="221"/>
+      <c r="B51" s="204">
         <f>F43</f>
         <v>18</v>
       </c>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
       <c r="E51" s="133">
         <f>L43</f>
         <v>0</v>
@@ -10880,98 +10906,98 @@
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="212"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
     </row>
     <row r="56" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="206"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="206"/>
     </row>
     <row r="57" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -11301,7 +11327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -11325,28 +11351,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="101" t="s">
         <v>52</v>
       </c>
@@ -11363,47 +11389,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="101">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -11422,20 +11448,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -11448,18 +11474,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="100" t="s">
         <v>15</v>
       </c>
@@ -11484,8 +11510,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -11664,17 +11690,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -11923,17 +11949,17 @@
       <c r="N22" s="268"/>
     </row>
     <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="230" t="s">
+      <c r="A23" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="233">
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234">
         <f>SUM($E$15:$F$22)</f>
         <v>48</v>
       </c>
-      <c r="F23" s="234"/>
+      <c r="F23" s="235"/>
       <c r="G23" s="137"/>
       <c r="H23" s="116"/>
       <c r="I23" s="116"/>
@@ -12158,17 +12184,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="230" t="s">
+      <c r="A31" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="231"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="233">
+      <c r="B31" s="232"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234">
         <f>SUM($E$24:$F$30)</f>
         <v>48</v>
       </c>
-      <c r="F31" s="234"/>
+      <c r="F31" s="235"/>
       <c r="G31" s="137"/>
       <c r="H31" s="116"/>
       <c r="I31" s="116"/>
@@ -12395,17 +12421,17 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="230" t="s">
+      <c r="A39" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="231"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="232"/>
-      <c r="E39" s="233">
+      <c r="B39" s="232"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="234">
         <f>SUM($E$32:$F$38)</f>
         <v>42</v>
       </c>
-      <c r="F39" s="234"/>
+      <c r="F39" s="235"/>
       <c r="G39" s="137"/>
       <c r="H39" s="116"/>
       <c r="I39" s="116"/>
@@ -12512,12 +12538,12 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="118">
         <f>SUM($E8:$E13)+SUM($E15:$E22)+SUM($E24:$E30)+SUM($E32:$E38)+SUM($E40:$E42)</f>
         <v>190</v>
@@ -12554,7 +12580,7 @@
         <f>SUM(M39+M31+M14+M23)</f>
         <v>16</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="97"/>
@@ -12588,119 +12614,119 @@
       <c r="M44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
-        <v>0</v>
-      </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
+        <v>0</v>
+      </c>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213">
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214">
         <f>COUNTIFS(N6:N40, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="213">
-        <v>0</v>
-      </c>
-      <c r="M47" s="214"/>
-      <c r="N47" s="210"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="214">
+        <v>0</v>
+      </c>
+      <c r="M47" s="215"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
       <c r="L48" s="236">
         <f>26-L45</f>
         <v>26</v>
       </c>
       <c r="M48" s="237"/>
-      <c r="N48" s="210"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="221"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
-      <c r="L49" s="223"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="210"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="229" t="s">
+      <c r="A50" s="220"/>
+      <c r="B50" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="96" t="s">
         <v>30</v>
       </c>
@@ -12719,19 +12745,19 @@
       <c r="J50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="225"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="210"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="211"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="220"/>
-      <c r="B51" s="203">
+      <c r="A51" s="221"/>
+      <c r="B51" s="204">
         <f>F43</f>
         <v>12</v>
       </c>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
       <c r="E51" s="133">
         <f>L43</f>
         <v>0</v>
@@ -12756,98 +12782,98 @@
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="212"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
     </row>
     <row r="56" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="206"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="206"/>
     </row>
     <row r="57" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -13179,7 +13205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13198,28 +13224,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="52" t="s">
         <v>52</v>
       </c>
@@ -13236,47 +13262,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="52">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -13295,20 +13321,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -13321,18 +13347,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="51" t="s">
         <v>15</v>
       </c>
@@ -13357,8 +13383,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -13387,7 +13413,7 @@
         <f>SUM(G8:L8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="193" t="s">
+      <c r="N8" s="194" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13418,7 +13444,7 @@
         <f t="shared" ref="M9:M25" si="0">SUM(G9:L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="194"/>
+      <c r="N9" s="195"/>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -13447,7 +13473,7 @@
         <f>SUM(G10:L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="195"/>
+      <c r="N10" s="196"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -13537,17 +13563,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -13778,17 +13804,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>48</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -14007,17 +14033,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>40</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -14242,17 +14268,17 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -14355,12 +14381,12 @@
       <c r="N41" s="266"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="209"/>
       <c r="E42" s="118">
         <f>SUM($E8:$E13)+SUM($E15:$E21)+SUM($E23:$E29)+SUM($E31:$E37)+SUM($E39:$E41)</f>
         <v>200</v>
@@ -14397,7 +14423,7 @@
         <f>SUM(M38+M30+M14+M22)</f>
         <v>8</v>
       </c>
-      <c r="N42" s="209"/>
+      <c r="N42" s="210"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="48"/>
@@ -14431,117 +14457,117 @@
       <c r="M43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="210"/>
+      <c r="N43" s="211"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="213" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="213">
+      <c r="B44" s="213"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="214">
         <v>1</v>
       </c>
-      <c r="M44" s="214"/>
-      <c r="N44" s="210"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="215" t="s">
+      <c r="A47" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="215"/>
-      <c r="K47" s="215"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
       <c r="L47" s="236">
         <f>26-L44</f>
         <v>25</v>
       </c>
       <c r="M47" s="237"/>
-      <c r="N47" s="210"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="218" t="s">
+      <c r="A48" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="221" t="s">
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="210"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="229" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="230"/>
       <c r="E49" s="47" t="s">
         <v>30</v>
       </c>
@@ -14560,19 +14586,19 @@
       <c r="J49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="210"/>
+      <c r="K49" s="226"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="220"/>
-      <c r="B50" s="203">
+      <c r="A50" s="221"/>
+      <c r="B50" s="204">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
       <c r="E50" s="133">
         <f>L42</f>
         <v>0</v>
@@ -14597,98 +14623,98 @@
         <f>K42</f>
         <v>0</v>
       </c>
-      <c r="K50" s="227"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="228"/>
-      <c r="N50" s="211"/>
+      <c r="K50" s="228"/>
+      <c r="L50" s="228"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="212"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="198"/>
-      <c r="N51" s="199"/>
+      <c r="A51" s="197"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="200"/>
     </row>
     <row r="52" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="203"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="206"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="206"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="206"/>
     </row>
     <row r="56" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -15080,7 +15106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15092,7 +15118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
@@ -15116,28 +15142,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="64" t="s">
         <v>52</v>
       </c>
@@ -15154,47 +15180,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="64">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -15213,20 +15239,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -15239,18 +15265,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="63" t="s">
         <v>15</v>
       </c>
@@ -15275,8 +15301,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -15459,17 +15485,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -15702,17 +15728,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>48</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -15919,17 +15945,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>24</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -16062,7 +16088,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="193" t="s">
+      <c r="N34" s="194" t="s">
         <v>175</v>
       </c>
     </row>
@@ -16093,7 +16119,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="194"/>
+      <c r="N35" s="195"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -16122,7 +16148,7 @@
         <f>SUM(G36:L36)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="195"/>
+      <c r="N36" s="196"/>
     </row>
     <row r="37" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -16150,17 +16176,17 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -16200,7 +16226,7 @@
         <f t="shared" ref="M39:M40" si="4">SUM(G39:L39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="193" t="s">
+      <c r="N39" s="194" t="s">
         <v>175</v>
       </c>
     </row>
@@ -16231,7 +16257,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N40" s="194"/>
+      <c r="N40" s="195"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -16260,20 +16286,20 @@
         <f>SUM(G41:L41)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="195"/>
+      <c r="N41" s="196"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="230" t="s">
+      <c r="A42" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="231"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="233">
+      <c r="B42" s="232"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="234">
         <f>SUM(E39:E41)</f>
         <v>24</v>
       </c>
-      <c r="F42" s="234"/>
+      <c r="F42" s="235"/>
       <c r="G42" s="137"/>
       <c r="H42" s="116"/>
       <c r="I42" s="116"/>
@@ -16287,12 +16313,12 @@
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="118">
         <f>SUM(E8:E13)+SUM(E15:E21)+SUM(E23:E29)+SUM(E31:E37)+SUM(E39:E41)</f>
         <v>176</v>
@@ -16329,7 +16355,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
@@ -16363,119 +16389,119 @@
       <c r="M44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
         <v>3</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213">
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="213">
-        <v>0</v>
-      </c>
-      <c r="M47" s="214"/>
-      <c r="N47" s="210"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="214">
+        <v>0</v>
+      </c>
+      <c r="M47" s="215"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
-      <c r="L48" s="216">
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
+      <c r="L48" s="217">
         <f>26-L45</f>
         <v>23</v>
       </c>
-      <c r="M48" s="217"/>
-      <c r="N48" s="210"/>
+      <c r="M48" s="218"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="221"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
-      <c r="L49" s="223"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="210"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="229" t="s">
+      <c r="A50" s="220"/>
+      <c r="B50" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="59" t="s">
         <v>30</v>
       </c>
@@ -16494,19 +16520,19 @@
       <c r="J50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="225"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="210"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="211"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="220"/>
-      <c r="B51" s="203">
+      <c r="A51" s="221"/>
+      <c r="B51" s="204">
         <f>F43</f>
         <v>8</v>
       </c>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
       <c r="E51" s="133">
         <f>L43</f>
         <v>0</v>
@@ -16531,98 +16557,98 @@
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="212"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
     </row>
     <row r="56" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="206"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="206"/>
     </row>
     <row r="57" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -17056,7 +17082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17079,28 +17105,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="153" t="s">
         <v>52</v>
       </c>
@@ -17117,47 +17143,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="153">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -17176,20 +17202,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -17202,18 +17228,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="152" t="s">
         <v>15</v>
       </c>
@@ -17238,8 +17264,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="151">
@@ -17422,17 +17448,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -17667,17 +17693,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>42</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -17902,17 +17928,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>48</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -18095,17 +18121,17 @@
       <c r="N37" s="171"/>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>8</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -18188,12 +18214,12 @@
       <c r="N41" s="171"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="209"/>
       <c r="E42" s="118">
         <f>E14+E22+E30+E38+SUM(E39:F41)</f>
         <v>138</v>
@@ -18230,7 +18256,7 @@
         <f>SUM($M8:$M13)+SUM($M15:$M21)+SUM($M23:$M29)+SUM($M31:$M37)+SUM($M39:$M41)</f>
         <v>14</v>
       </c>
-      <c r="N42" s="209"/>
+      <c r="N42" s="210"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="147"/>
@@ -18264,119 +18290,119 @@
       <c r="M43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="210"/>
+      <c r="N43" s="211"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="213">
-        <v>0</v>
-      </c>
-      <c r="M44" s="214"/>
-      <c r="N44" s="210"/>
+      <c r="B44" s="213"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="214">
+        <v>0</v>
+      </c>
+      <c r="M44" s="215"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213">
-        <v>0</v>
-      </c>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214">
+        <v>0</v>
+      </c>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="215" t="s">
+      <c r="A47" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="215"/>
-      <c r="K47" s="215"/>
-      <c r="L47" s="216">
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="217">
         <f>26-L44</f>
         <v>26</v>
       </c>
-      <c r="M47" s="217"/>
-      <c r="N47" s="210"/>
+      <c r="M47" s="218"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="218" t="s">
+      <c r="A48" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="221" t="s">
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="210"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="229" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="230"/>
       <c r="E49" s="150" t="s">
         <v>30</v>
       </c>
@@ -18395,19 +18421,19 @@
       <c r="J49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="210"/>
+      <c r="K49" s="226"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="220"/>
-      <c r="B50" s="203">
+      <c r="A50" s="221"/>
+      <c r="B50" s="204">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
       <c r="E50" s="133">
         <f>L42</f>
         <v>0</v>
@@ -18432,98 +18458,98 @@
         <f>K42</f>
         <v>0</v>
       </c>
-      <c r="K50" s="227"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="228"/>
-      <c r="N50" s="211"/>
+      <c r="K50" s="228"/>
+      <c r="L50" s="228"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="212"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="198"/>
-      <c r="N51" s="199"/>
+      <c r="A51" s="197"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="200"/>
     </row>
     <row r="52" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="203"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="206"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="206"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="206"/>
     </row>
     <row r="56" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -19185,7 +19211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -19205,28 +19231,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="64" t="s">
         <v>52</v>
       </c>
@@ -19243,47 +19269,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="64">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -19302,20 +19328,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -19328,18 +19354,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="63" t="s">
         <v>15</v>
       </c>
@@ -19364,8 +19390,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -19542,17 +19568,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>32</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -19783,17 +19809,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>48</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -20006,17 +20032,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>32</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -20149,7 +20175,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N34" s="193" t="s">
+      <c r="N34" s="194" t="s">
         <v>157</v>
       </c>
     </row>
@@ -20180,7 +20206,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="194"/>
+      <c r="N35" s="195"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -20209,7 +20235,7 @@
         <f>SUM(G36:L36)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="194"/>
+      <c r="N36" s="195"/>
     </row>
     <row r="37" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -20232,20 +20258,20 @@
         <f t="shared" ref="M37" si="4">SUM(G37:L37)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="195"/>
+      <c r="N37" s="196"/>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -20285,7 +20311,7 @@
         <f t="shared" ref="M39:M40" si="5">SUM(G39:L39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="193" t="s">
+      <c r="N39" s="194" t="s">
         <v>157</v>
       </c>
     </row>
@@ -20316,7 +20342,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N40" s="194"/>
+      <c r="N40" s="195"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -20345,20 +20371,20 @@
         <f>SUM(G41:L41)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="195"/>
+      <c r="N41" s="196"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="230" t="s">
+      <c r="A42" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="231"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="233">
+      <c r="B42" s="232"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="234">
         <f>SUM(E39:E41)</f>
         <v>24</v>
       </c>
-      <c r="F42" s="234"/>
+      <c r="F42" s="235"/>
       <c r="G42" s="137"/>
       <c r="H42" s="116"/>
       <c r="I42" s="116"/>
@@ -20372,12 +20398,12 @@
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="118">
         <f>SUM(E8:E13)+SUM(E15:E21)+SUM(E23:E29)+SUM(E31:E37)+SUM(E39:E41)</f>
         <v>176</v>
@@ -20414,7 +20440,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
@@ -20448,118 +20474,118 @@
       <c r="M44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
         <v>3</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213">
-        <v>0</v>
-      </c>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214">
+        <v>0</v>
+      </c>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="213">
-        <v>0</v>
-      </c>
-      <c r="M47" s="214"/>
-      <c r="N47" s="210"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="214">
+        <v>0</v>
+      </c>
+      <c r="M47" s="215"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
       <c r="L48" s="236">
         <f>26-L45</f>
         <v>23</v>
       </c>
       <c r="M48" s="237"/>
-      <c r="N48" s="210"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="221"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
-      <c r="L49" s="223"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="210"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="229" t="s">
+      <c r="A50" s="220"/>
+      <c r="B50" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="59" t="s">
         <v>30</v>
       </c>
@@ -20578,19 +20604,19 @@
       <c r="J50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="225"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="210"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="211"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="220"/>
-      <c r="B51" s="203">
+      <c r="A51" s="221"/>
+      <c r="B51" s="204">
         <f>F43</f>
         <v>8</v>
       </c>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
       <c r="E51" s="133">
         <f>L43</f>
         <v>0</v>
@@ -20615,98 +20641,98 @@
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="212"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
     </row>
     <row r="56" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="206"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="206"/>
     </row>
     <row r="57" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -21108,7 +21134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
@@ -21128,28 +21154,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="64" t="s">
         <v>52</v>
       </c>
@@ -21166,47 +21192,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="64">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -21225,20 +21251,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -21251,18 +21277,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="63" t="s">
         <v>15</v>
       </c>
@@ -21287,8 +21313,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -21471,17 +21497,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -21712,17 +21738,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>48</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -21947,17 +21973,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>48</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -22182,17 +22208,17 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -22299,17 +22325,17 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="230" t="s">
+      <c r="A42" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="231"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="233">
+      <c r="B42" s="232"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="234">
         <f>SUM(E39:E41)</f>
         <v>24</v>
       </c>
-      <c r="F42" s="234"/>
+      <c r="F42" s="235"/>
       <c r="G42" s="137"/>
       <c r="H42" s="116"/>
       <c r="I42" s="116"/>
@@ -22323,12 +22349,12 @@
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="118">
         <f>SUM(E8:E13)+SUM(E15:E21)+SUM(E23:E29)+SUM(E31:E37)+SUM(E39:E41)</f>
         <v>208</v>
@@ -22365,7 +22391,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
@@ -22399,119 +22425,119 @@
       <c r="M44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
       <c r="L45" s="238">
         <v>0</v>
       </c>
       <c r="M45" s="239"/>
-      <c r="N45" s="210"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
       <c r="L46" s="238">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
       <c r="M46" s="239"/>
-      <c r="N46" s="210"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
       <c r="L47" s="238">
         <v>0</v>
       </c>
       <c r="M47" s="239"/>
-      <c r="N47" s="210"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
       <c r="L48" s="240">
         <f>26-L450</f>
         <v>26</v>
       </c>
       <c r="M48" s="241"/>
-      <c r="N48" s="210"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="221"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
-      <c r="L49" s="223"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="210"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="229" t="s">
+      <c r="A50" s="220"/>
+      <c r="B50" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="59" t="s">
         <v>30</v>
       </c>
@@ -22530,19 +22556,19 @@
       <c r="J50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="225"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="210"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="211"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="220"/>
-      <c r="B51" s="203">
+      <c r="A51" s="221"/>
+      <c r="B51" s="204">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
       <c r="E51" s="133">
         <f>L43</f>
         <v>0</v>
@@ -22567,98 +22593,98 @@
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="212"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
     </row>
     <row r="56" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="206"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="206"/>
     </row>
     <row r="57" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -23050,7 +23076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
@@ -23074,28 +23100,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="64" t="s">
         <v>52</v>
       </c>
@@ -23112,47 +23138,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="64">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -23171,20 +23197,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -23197,18 +23223,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="63" t="s">
         <v>15</v>
       </c>
@@ -23233,8 +23259,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -23417,12 +23443,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
       <c r="E14" s="242">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
@@ -23660,12 +23686,12 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
       <c r="E22" s="242">
         <f>SUM($E$15:$F$21)</f>
         <v>48</v>
@@ -23899,12 +23925,12 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
       <c r="E30" s="242">
         <f>SUM($E$23:$F$29)</f>
         <v>48</v>
@@ -24134,12 +24160,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
       <c r="E38" s="242">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
@@ -24253,12 +24279,12 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="209"/>
       <c r="E42" s="118">
         <f t="shared" ref="E42:L42" si="3">SUM(E8:E13)+SUM(E15:E21)+SUM(E23:E29)+SUM(E31:E37)+SUM(E39:E41)</f>
         <v>194</v>
@@ -24295,7 +24321,7 @@
         <f>SUM(G42:L42)</f>
         <v>12</v>
       </c>
-      <c r="N42" s="209"/>
+      <c r="N42" s="210"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="60"/>
@@ -24329,121 +24355,121 @@
       <c r="M43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="210"/>
+      <c r="N43" s="211"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="212"/>
+      <c r="B44" s="213"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="213"/>
       <c r="M44" s="162">
         <v>0</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="212">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="213">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
       <c r="M45" s="163">
         <v>0</v>
       </c>
-      <c r="N45" s="210"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="212"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="213"/>
       <c r="M46" s="163">
         <v>0</v>
       </c>
-      <c r="N46" s="210"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="212"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="213"/>
       <c r="M47" s="163">
         <f>26-M44</f>
         <v>26</v>
       </c>
-      <c r="N47" s="210"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="218" t="s">
+      <c r="A48" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="221" t="s">
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="210"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="229" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="230"/>
       <c r="E49" s="59" t="s">
         <v>30</v>
       </c>
@@ -24462,19 +24488,19 @@
       <c r="J49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="210"/>
+      <c r="K49" s="226"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="220"/>
-      <c r="B50" s="203">
+      <c r="A50" s="221"/>
+      <c r="B50" s="204">
         <f>F42</f>
         <v>14</v>
       </c>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
       <c r="E50" s="133">
         <f>L42</f>
         <v>0</v>
@@ -24499,98 +24525,98 @@
         <f>K42</f>
         <v>0</v>
       </c>
-      <c r="K50" s="227"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="228"/>
-      <c r="N50" s="211"/>
+      <c r="K50" s="228"/>
+      <c r="L50" s="228"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="212"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="198"/>
-      <c r="N51" s="199"/>
+      <c r="A51" s="197"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="200"/>
     </row>
     <row r="52" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="203"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="206"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="206"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="206"/>
     </row>
     <row r="56" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -24936,7 +24962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
@@ -24960,28 +24986,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="64" t="s">
         <v>17</v>
       </c>
@@ -24998,47 +25024,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="64">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -25057,20 +25083,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -25083,18 +25109,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="63" t="s">
         <v>15</v>
       </c>
@@ -25119,8 +25145,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -26137,12 +26163,12 @@
       <c r="N42" s="146"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="118">
         <f>SUM(E8:E12,E15:E20,E23:E28,E31:E36,E39:E41)</f>
         <v>184</v>
@@ -26179,7 +26205,7 @@
         <f>SUM(M8:M11)+SUM(M12:M19)+SUM(M20:M27)+SUM(M28:M36)+SUM(M37:M41)</f>
         <v>8</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
@@ -26213,121 +26239,121 @@
       <c r="M44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="210"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="212"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="213"/>
       <c r="M45" s="162">
         <v>3</v>
       </c>
-      <c r="N45" s="210"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="212">
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="213">
         <f>COUNTIFS(N7:N40, "Compensatory")</f>
         <v>0</v>
       </c>
       <c r="M46" s="163">
         <v>0</v>
       </c>
-      <c r="N46" s="210"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="212"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="213"/>
+      <c r="L47" s="213"/>
       <c r="M47" s="163">
         <v>0</v>
       </c>
-      <c r="N47" s="210"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="212" t="s">
+      <c r="A48" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="212"/>
-      <c r="K48" s="212"/>
-      <c r="L48" s="212"/>
+      <c r="B48" s="213"/>
+      <c r="C48" s="213"/>
+      <c r="D48" s="213"/>
+      <c r="E48" s="213"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="213"/>
+      <c r="H48" s="213"/>
+      <c r="I48" s="213"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="213"/>
+      <c r="L48" s="213"/>
       <c r="M48" s="163">
         <f>26-M45</f>
         <v>23</v>
       </c>
-      <c r="N48" s="210"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="221"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="222"/>
-      <c r="K49" s="223"/>
-      <c r="L49" s="223"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="210"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="229" t="s">
+      <c r="A50" s="220"/>
+      <c r="B50" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="230"/>
       <c r="E50" s="59" t="s">
         <v>30</v>
       </c>
@@ -26346,13 +26372,13 @@
       <c r="J50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="225"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="210"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="211"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="220"/>
+      <c r="A51" s="221"/>
       <c r="B51" s="244">
         <f>F43</f>
         <v>0</v>
@@ -26383,98 +26409,98 @@
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="211"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="212"/>
     </row>
     <row r="52" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="199"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
     </row>
     <row r="53" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
     </row>
     <row r="56" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="206"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -26930,7 +26956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -26954,28 +26980,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="53" t="s">
         <v>52</v>
       </c>
@@ -26992,47 +27018,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="53">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -27051,20 +27077,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -27077,18 +27103,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
@@ -27113,8 +27139,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -27297,17 +27323,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -27544,17 +27570,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>42</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -27781,17 +27807,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>48</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -28022,17 +28048,17 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -28139,12 +28165,12 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="209"/>
       <c r="E42" s="118">
         <f>SUM(E8:E13)+SUM(E15:E21)+SUM(E23:E29)+SUM(E31:E37)+SUM(E39:E41)</f>
         <v>182</v>
@@ -28181,7 +28207,7 @@
         <f>SUM(M8:M13)+SUM(M15:M21)+SUM(M23:M29)+SUM(M31:M37)+SUM(M39:M41)</f>
         <v>22</v>
       </c>
-      <c r="N42" s="209"/>
+      <c r="N42" s="210"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
@@ -28215,119 +28241,119 @@
       <c r="M43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="210"/>
+      <c r="N43" s="211"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="213">
-        <v>0</v>
-      </c>
-      <c r="M44" s="214"/>
-      <c r="N44" s="210"/>
+      <c r="B44" s="213"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="214">
+        <v>0</v>
+      </c>
+      <c r="M44" s="215"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213">
-        <v>0</v>
-      </c>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214">
+        <v>0</v>
+      </c>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="215" t="s">
+      <c r="A47" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="215"/>
-      <c r="K47" s="215"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
       <c r="L47" s="236">
         <f>26-L44</f>
         <v>26</v>
       </c>
       <c r="M47" s="237"/>
-      <c r="N47" s="210"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="218" t="s">
+      <c r="A48" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="221" t="s">
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="210"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="229" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="230"/>
       <c r="E49" s="58" t="s">
         <v>30</v>
       </c>
@@ -28346,19 +28372,19 @@
       <c r="J49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="210"/>
+      <c r="K49" s="226"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="220"/>
-      <c r="B50" s="203">
+      <c r="A50" s="221"/>
+      <c r="B50" s="204">
         <f>F42</f>
         <v>20</v>
       </c>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
       <c r="E50" s="133">
         <f>L42</f>
         <v>0</v>
@@ -28383,98 +28409,98 @@
         <f>K42</f>
         <v>0</v>
       </c>
-      <c r="K50" s="227"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="228"/>
-      <c r="N50" s="211"/>
+      <c r="K50" s="228"/>
+      <c r="L50" s="228"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="212"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="198"/>
-      <c r="N51" s="199"/>
+      <c r="A51" s="197"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="200"/>
     </row>
     <row r="52" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="203"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="206"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="206"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="206"/>
     </row>
     <row r="56" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -28768,7 +28794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -28790,28 +28816,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="53" t="s">
         <v>52</v>
       </c>
@@ -28828,47 +28854,47 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="53">
         <v>2021</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="I4" s="192" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="I4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -28887,20 +28913,20 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="172" t="s">
         <v>11</v>
       </c>
@@ -28913,18 +28939,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="173"/>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="N6" s="192" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="185"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
@@ -28949,8 +28975,8 @@
       <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="175"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -29133,17 +29159,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233">
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234">
         <f>SUM($E$8:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="137"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -29370,17 +29396,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234">
         <f>SUM($E$15:$F$21)</f>
         <v>42</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="235"/>
       <c r="G22" s="137"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
@@ -29580,17 +29606,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234">
         <f>SUM($E$23:$F$29)</f>
         <v>16</v>
       </c>
-      <c r="F30" s="234"/>
+      <c r="F30" s="235"/>
       <c r="G30" s="137"/>
       <c r="H30" s="116"/>
       <c r="I30" s="116"/>
@@ -29723,7 +29749,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N34" s="193" t="s">
+      <c r="N34" s="194" t="s">
         <v>150</v>
       </c>
     </row>
@@ -29754,7 +29780,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="194"/>
+      <c r="N35" s="195"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -29783,7 +29809,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N36" s="194"/>
+      <c r="N36" s="195"/>
     </row>
     <row r="37" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -29806,20 +29832,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N37" s="195"/>
+      <c r="N37" s="196"/>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233">
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234">
         <f>SUM($E$31:$F$37)</f>
         <v>48</v>
       </c>
-      <c r="F38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="137"/>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
@@ -29859,7 +29885,7 @@
         <f t="shared" ref="M39:M41" si="4">SUM(G39:L39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="193" t="s">
+      <c r="N39" s="194" t="s">
         <v>150</v>
       </c>
     </row>
@@ -29890,7 +29916,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N40" s="194"/>
+      <c r="N40" s="195"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -29919,15 +29945,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N41" s="195"/>
+      <c r="N41" s="196"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="209"/>
       <c r="E42" s="118">
         <f>E14+E22+E30+E38+SUM(E39:F41)</f>
         <v>170</v>
@@ -29964,7 +29990,7 @@
         <f>SUM($M8:$M13)+SUM($M15:$M21)+SUM($M23:$M29)+SUM($M31:$M37)+SUM($M39:$M41)</f>
         <v>6</v>
       </c>
-      <c r="N42" s="209"/>
+      <c r="N42" s="210"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
@@ -29998,117 +30024,117 @@
       <c r="M43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="210"/>
+      <c r="N43" s="211"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="213">
+      <c r="B44" s="213"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="214">
         <v>4</v>
       </c>
-      <c r="M44" s="214"/>
-      <c r="N44" s="210"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="211"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="213">
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="214">
         <f>COUNTIFS(N6:N39, "Compensatory")</f>
         <v>0</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="210"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="214"/>
-      <c r="N46" s="210"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="214"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="215" t="s">
+      <c r="A47" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="215"/>
-      <c r="K47" s="215"/>
-      <c r="L47" s="216">
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="217">
         <f>26-L44</f>
         <v>22</v>
       </c>
-      <c r="M47" s="217"/>
-      <c r="N47" s="210"/>
+      <c r="M47" s="218"/>
+      <c r="N47" s="211"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="218" t="s">
+      <c r="A48" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="221" t="s">
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="210"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="211"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="229" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="230"/>
       <c r="E49" s="58" t="s">
         <v>30</v>
       </c>
@@ -30127,19 +30153,19 @@
       <c r="J49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="210"/>
+      <c r="K49" s="226"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="211"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="220"/>
-      <c r="B50" s="203">
+      <c r="A50" s="221"/>
+      <c r="B50" s="204">
         <f>F42</f>
         <v>0</v>
       </c>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
       <c r="E50" s="133">
         <f>L42</f>
         <v>0</v>
@@ -30164,98 +30190,98 @@
         <f>K42</f>
         <v>0</v>
       </c>
-      <c r="K50" s="227"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="228"/>
-      <c r="N50" s="211"/>
+      <c r="K50" s="228"/>
+      <c r="L50" s="228"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="212"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="198"/>
-      <c r="N51" s="199"/>
+      <c r="A51" s="197"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="200"/>
     </row>
     <row r="52" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="203"/>
     </row>
     <row r="53" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="201"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="203"/>
     </row>
     <row r="54" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="203"/>
     </row>
     <row r="55" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="206"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="206"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="206"/>
     </row>
     <row r="56" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
